--- a/biology/Botanique/Retrophyllum/Retrophyllum.xlsx
+++ b/biology/Botanique/Retrophyllum/Retrophyllum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Retrophyllum est un genre de plante de la famille des Podocarpacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces de ce genre appartenaient au genre Nageia avant d'en être séparées et regroupées par Christopher Nigel Page dans le genre Retrophyllum.
 Ce genre est à 20 paires de chromosomes, ce qui le différencie du genre Afrocarpus - 24 paires - et partiellement du genre Nageia - 20 ou 26 ou 29 paires selon les espèces -.
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Retrophyllum comptonii (J. Buchholz) C.N.Page - Nouvelle-Calédonie - "Bois bouchon de forêt"
 Retrophyllum minor (Carrière) C.N.Page - Nouvelle-Calédonie - "Bois bouchon"
@@ -577,11 +593,13 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jaffré T., 1994. Distribution and Ecology of the Conifers of New Caledonia. Conifers of the Southern Hemisphere, (eds N.J. Enright, R.S. Hill), pp. 171-196. Melbourne University Press, Australia.
 J. Herbert,
-P. M. Hollingsworth†, M. F. Gardner, R. R. Mill, P. I. Thomas, T. Jaffré - Conservation genetics and phylogenetics of New Caledonian Retrophyllum (Podocarpaceae) species - New Zealand Journal of Botany, 2002, Vol. 40: 175–188 [1]
+P. M. Hollingsworth†, M. F. Gardner, R. R. Mill, P. I. Thomas, T. Jaffré - Conservation genetics and phylogenetics of New Caledonian Retrophyllum (Podocarpaceae) species - New Zealand Journal of Botany, 2002, Vol. 40: 175–188 
 </t>
         </is>
       </c>
